--- a/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/DataGenerator-ReaderTools/SyntheticAdaptive/HMMdataGenerator/DefaultMarkovChain.xlsx
+++ b/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/DataGenerator-ReaderTools/SyntheticAdaptive/HMMdataGenerator/DefaultMarkovChain.xlsx
@@ -356,217 +356,217 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>0.95</v>
+        <v>0.78966303473125199</v>
       </c>
       <c r="B1" s="1">
-        <v>0.03</v>
+        <v>5.2572570399217998E-2</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>2.83056368339569E-11</v>
       </c>
       <c r="D1" s="1">
-        <v>0.01</v>
+        <v>5.2601105712166599E-2</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>2.65968735340929E-11</v>
       </c>
       <c r="F1" s="1">
-        <v>0</v>
+        <v>3.0016093584361398E-11</v>
       </c>
       <c r="G1" s="1">
-        <v>0.01</v>
+        <v>5.25806972260075E-2</v>
       </c>
       <c r="H1" s="1">
-        <v>0.01</v>
+        <v>5.2582591846437099E-2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.03</v>
+        <v>5.2573534250416699E-2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.95</v>
+        <v>0.78972447902323195</v>
       </c>
       <c r="C2" s="1">
-        <v>0.01</v>
+        <v>5.2576006684229001E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1.5575504472949399E-10</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01</v>
+        <v>5.2564858855080603E-2</v>
       </c>
       <c r="F2" s="1">
-        <v>0.01</v>
+        <v>5.2561120977020002E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>2.7324839679052201E-11</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>2.6941730299439E-11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.1</v>
+        <v>0.28568717529191401</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1.4277993599523899E-10</v>
       </c>
       <c r="C3" s="1">
-        <v>0.8</v>
+        <v>0.71431282385070405</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1.4305619117596499E-10</v>
       </c>
       <c r="E3" s="1">
-        <v>0.05</v>
+        <v>1.43100277461616E-10</v>
       </c>
       <c r="F3" s="1">
-        <v>0.05</v>
+        <v>1.4288612786736999E-10</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1.4277960679938501E-10</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1.4277999688803799E-10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1.4273647433536801E-10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1</v>
+        <v>0.28566448706798397</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1.42736474338538E-10</v>
       </c>
       <c r="D4" s="1">
-        <v>0.8</v>
+        <v>0.71433551207507395</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1.4273647437023101E-10</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1.4273647432902901E-10</v>
       </c>
       <c r="G4" s="1">
-        <v>0.05</v>
+        <v>1.4295341409972601E-10</v>
       </c>
       <c r="H4" s="1">
-        <v>0.05</v>
+        <v>1.43043205301378E-10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.2</v>
+        <v>0.11764758450674501</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>5.8816207924012997E-11</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2.8086549915299202E-10</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>5.8838933638161401E-11</v>
       </c>
       <c r="E5" s="1">
-        <v>0.8</v>
+        <v>0.88235241456086699</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4.1623370027166199E-10</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>5.8814700242747305E-11</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>5.8818394109250397E-11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.2</v>
+        <v>0.11765645779699301</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>5.8829030190895101E-11</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>5.9235019271806296E-11</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>5.8818532307069298E-11</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>5.9254588255022097E-11</v>
       </c>
       <c r="F6" s="1">
-        <v>0.8</v>
+        <v>0.88234354184922004</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>5.8821085272676505E-11</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>5.8829471156221399E-11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5.8799427967501094E-11</v>
       </c>
       <c r="B7" s="1">
-        <v>0.2</v>
+        <v>0.117632073477369</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5.8799427967501094E-11</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5.8806111432530105E-11</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>5.8799427967501094E-11</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5.8799427967501094E-11</v>
       </c>
       <c r="G7" s="1">
-        <v>0.8</v>
+        <v>0.88236792616582205</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>6.2805811403474204E-11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>5.8824520297873498E-11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.2</v>
+        <v>0.117653367610261</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>5.8813834023419504E-11</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>5.8979294007086699E-6</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>5.8813834006442501E-11</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>5.8845011443651101E-11</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>6.5588576621166106E-11</v>
       </c>
       <c r="H8" s="1">
-        <v>0.8</v>
+        <v>0.88234073415945302</v>
       </c>
     </row>
   </sheetData>
